--- a/Support_data/City_to_Airport_Distance.xlsx
+++ b/Support_data/City_to_Airport_Distance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,33 +458,117 @@
       <c r="I1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>5202.103070313361</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3748.998648927505</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3442.358010382759</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4248.317270292028</v>
+      </c>
+      <c r="F2" t="n">
         <v>42.33071574831921</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
+        <v>3715.491404674744</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3684.180067097132</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3192.027712271023</v>
+      </c>
+      <c r="J2" t="n">
         <v>4209.221126015122</v>
       </c>
-      <c r="D2" t="n">
+      <c r="K2" t="n">
+        <v>3140.584317993039</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3061.616149801398</v>
+      </c>
+      <c r="M2" t="n">
         <v>730.5302498263628</v>
       </c>
-      <c r="E2" t="n">
+      <c r="N2" t="n">
         <v>625.9649771399626</v>
       </c>
-      <c r="F2" t="n">
+      <c r="O2" t="n">
+        <v>3054.575867736827</v>
+      </c>
+      <c r="P2" t="n">
         <v>2795.588906081835</v>
       </c>
-      <c r="G2" t="n">
+      <c r="Q2" t="n">
+        <v>3681.025199251469</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3099.142437057252</v>
+      </c>
+      <c r="S2" t="n">
         <v>27.53032338126078</v>
       </c>
-      <c r="H2" t="n">
+      <c r="T2" t="n">
+        <v>3097.176534902796</v>
+      </c>
+      <c r="U2" t="n">
+        <v>7194.179918990886</v>
+      </c>
+      <c r="V2" t="n">
         <v>28.50139517022826</v>
       </c>
-      <c r="I2" t="n">
+      <c r="W2" t="n">
         <v>6406.303821143313</v>
       </c>
     </row>
@@ -493,27 +577,69 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>7565.403787097526</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5175.456707558604</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5285.639320968648</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8432.048787941378</v>
+      </c>
+      <c r="F3" t="n">
         <v>4200.729244089316</v>
       </c>
-      <c r="C3" t="n">
+      <c r="G3" t="n">
+        <v>5102.840681581325</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5059.368259600916</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6350.383823961488</v>
+      </c>
+      <c r="J3" t="n">
         <v>7.141505114306876</v>
       </c>
-      <c r="D3" t="n">
+      <c r="K3" t="n">
+        <v>2318.703405836473</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5224.165187532568</v>
+      </c>
+      <c r="M3" t="n">
         <v>3523.343969326773</v>
       </c>
-      <c r="E3" t="n">
+      <c r="N3" t="n">
         <v>4424.042382758523</v>
       </c>
-      <c r="F3" t="n">
+      <c r="O3" t="n">
+        <v>2710.814585860922</v>
+      </c>
+      <c r="P3" t="n">
         <v>1451.736397524728</v>
       </c>
-      <c r="G3" t="n">
+      <c r="Q3" t="n">
+        <v>5043.006325820001</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6245.545039703786</v>
+      </c>
+      <c r="S3" t="n">
         <v>4203.832661449996</v>
       </c>
-      <c r="H3" t="n">
+      <c r="T3" t="n">
+        <v>3095.778100511793</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4415.131177910461</v>
+      </c>
+      <c r="V3" t="n">
         <v>4229.628864248363</v>
       </c>
-      <c r="I3" t="n">
+      <c r="W3" t="n">
         <v>2282.835524632547</v>
       </c>
     </row>
@@ -522,27 +648,69 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>5283.225976953309</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3515.645203392702</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3284.508473868888</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4954.457506209998</v>
+      </c>
+      <c r="F4" t="n">
         <v>705.1058802321743</v>
       </c>
-      <c r="C4" t="n">
+      <c r="G4" t="n">
+        <v>3470.034741607198</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3433.055488158249</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3410.385682280778</v>
+      </c>
+      <c r="J4" t="n">
         <v>3533.794885136063</v>
       </c>
-      <c r="D4" t="n">
+      <c r="K4" t="n">
+        <v>2457.888128289429</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2954.986321532821</v>
+      </c>
+      <c r="M4" t="n">
         <v>22.54124530256808</v>
       </c>
-      <c r="E4" t="n">
+      <c r="N4" t="n">
         <v>1198.212139513162</v>
       </c>
-      <c r="F4" t="n">
+      <c r="O4" t="n">
+        <v>2411.820508119469</v>
+      </c>
+      <c r="P4" t="n">
         <v>2098.031429842543</v>
       </c>
-      <c r="G4" t="n">
+      <c r="Q4" t="n">
+        <v>3426.542619340745</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3308.345953726322</v>
+      </c>
+      <c r="S4" t="n">
         <v>729.6248127740581</v>
       </c>
-      <c r="H4" t="n">
+      <c r="T4" t="n">
+        <v>2507.094785469118</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6522.681472322837</v>
+      </c>
+      <c r="V4" t="n">
         <v>742.80254029689</v>
       </c>
-      <c r="I4" t="n">
+      <c r="W4" t="n">
         <v>5764.885115916564</v>
       </c>
     </row>
@@ -551,27 +719,69 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>5710.872418865734</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4373.065975921696</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4053.724505636718</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4034.268834281829</v>
+      </c>
+      <c r="F5" t="n">
         <v>675.5621944593825</v>
       </c>
-      <c r="C5" t="n">
+      <c r="G5" t="n">
+        <v>4341.441664784167</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4310.996099364122</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3652.471486432465</v>
+      </c>
+      <c r="J5" t="n">
         <v>4422.291858824107</v>
       </c>
-      <c r="D5" t="n">
+      <c r="K5" t="n">
+        <v>3653.463640102686</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3663.754109603889</v>
+      </c>
+      <c r="M5" t="n">
         <v>1217.923311179681</v>
       </c>
-      <c r="E5" t="n">
+      <c r="N5" t="n">
         <v>15.64556551051398</v>
       </c>
-      <c r="F5" t="n">
+      <c r="O5" t="n">
+        <v>3608.835334540383</v>
+      </c>
+      <c r="P5" t="n">
         <v>3091.231278155338</v>
       </c>
-      <c r="G5" t="n">
+      <c r="Q5" t="n">
+        <v>4308.288575643608</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3567.411146436127</v>
+      </c>
+      <c r="S5" t="n">
         <v>607.6173871354035</v>
       </c>
-      <c r="H5" t="n">
+      <c r="T5" t="n">
+        <v>3684.451909453471</v>
+      </c>
+      <c r="U5" t="n">
+        <v>7718.725200107287</v>
+      </c>
+      <c r="V5" t="n">
         <v>634.5043081667496</v>
       </c>
-      <c r="I5" t="n">
+      <c r="W5" t="n">
         <v>6523.443427551874</v>
       </c>
     </row>
@@ -580,27 +790,69 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>6417.951040961293</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4116.849214874179</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4131.035987065967</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7059.533138562611</v>
+      </c>
+      <c r="F6" t="n">
         <v>2805.658848322679</v>
       </c>
-      <c r="C6" t="n">
+      <c r="G6" t="n">
+        <v>4047.623537668839</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4003.027518683678</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4997.127072050122</v>
+      </c>
+      <c r="J6" t="n">
         <v>1440.943963597735</v>
       </c>
-      <c r="D6" t="n">
+      <c r="K6" t="n">
+        <v>1456.359105590343</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3992.936527189594</v>
+      </c>
+      <c r="M6" t="n">
         <v>2109.170809120837</v>
       </c>
-      <c r="E6" t="n">
+      <c r="N6" t="n">
         <v>3111.352888269211</v>
       </c>
-      <c r="F6" t="n">
+      <c r="O6" t="n">
+        <v>1770.217514007952</v>
+      </c>
+      <c r="P6" t="n">
         <v>18.37750081585277</v>
       </c>
-      <c r="G6" t="n">
+      <c r="Q6" t="n">
+        <v>3988.579463097021</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4890.977988006742</v>
+      </c>
+      <c r="S6" t="n">
         <v>2816.113960501615</v>
       </c>
-      <c r="H6" t="n">
+      <c r="T6" t="n">
+        <v>2137.840003156269</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4965.564320743018</v>
+      </c>
+      <c r="V6" t="n">
         <v>2838.010091456182</v>
       </c>
-      <c r="I6" t="n">
+      <c r="W6" t="n">
         <v>3711.41320520205</v>
       </c>
     </row>
@@ -609,27 +861,69 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5202.103070313361</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3748.998648927505</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3442.358010382759</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4248.317270292028</v>
+      </c>
+      <c r="F7" t="n">
         <v>42.33071574831921</v>
       </c>
-      <c r="C7" t="n">
+      <c r="G7" t="n">
+        <v>3715.491404674744</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3684.180067097132</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3192.027712271023</v>
+      </c>
+      <c r="J7" t="n">
         <v>4209.221126015122</v>
       </c>
-      <c r="D7" t="n">
+      <c r="K7" t="n">
+        <v>3140.584317993039</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3061.616149801398</v>
+      </c>
+      <c r="M7" t="n">
         <v>730.5302498263628</v>
       </c>
-      <c r="E7" t="n">
+      <c r="N7" t="n">
         <v>625.9649771399626</v>
       </c>
-      <c r="F7" t="n">
+      <c r="O7" t="n">
+        <v>3054.575867736827</v>
+      </c>
+      <c r="P7" t="n">
         <v>2795.588906081835</v>
       </c>
-      <c r="G7" t="n">
+      <c r="Q7" t="n">
+        <v>3681.025199251469</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3099.142437057252</v>
+      </c>
+      <c r="S7" t="n">
         <v>27.53032338126078</v>
       </c>
-      <c r="H7" t="n">
+      <c r="T7" t="n">
+        <v>3097.176534902796</v>
+      </c>
+      <c r="U7" t="n">
+        <v>7194.179918990886</v>
+      </c>
+      <c r="V7" t="n">
         <v>28.50139517022826</v>
       </c>
-      <c r="I7" t="n">
+      <c r="W7" t="n">
         <v>6406.303821143313</v>
       </c>
     </row>
@@ -638,27 +932,69 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>5202.103070313361</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3748.998648927505</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3442.358010382759</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4248.317270292028</v>
+      </c>
+      <c r="F8" t="n">
         <v>42.33071574831921</v>
       </c>
-      <c r="C8" t="n">
+      <c r="G8" t="n">
+        <v>3715.491404674744</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3684.180067097132</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3192.027712271023</v>
+      </c>
+      <c r="J8" t="n">
         <v>4209.221126015122</v>
       </c>
-      <c r="D8" t="n">
+      <c r="K8" t="n">
+        <v>3140.584317993039</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3061.616149801398</v>
+      </c>
+      <c r="M8" t="n">
         <v>730.5302498263628</v>
       </c>
-      <c r="E8" t="n">
+      <c r="N8" t="n">
         <v>625.9649771399626</v>
       </c>
-      <c r="F8" t="n">
+      <c r="O8" t="n">
+        <v>3054.575867736827</v>
+      </c>
+      <c r="P8" t="n">
         <v>2795.588906081835</v>
       </c>
-      <c r="G8" t="n">
+      <c r="Q8" t="n">
+        <v>3681.025199251469</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3099.142437057252</v>
+      </c>
+      <c r="S8" t="n">
         <v>27.53032338126078</v>
       </c>
-      <c r="H8" t="n">
+      <c r="T8" t="n">
+        <v>3097.176534902796</v>
+      </c>
+      <c r="U8" t="n">
+        <v>7194.179918990886</v>
+      </c>
+      <c r="V8" t="n">
         <v>28.50139517022826</v>
       </c>
-      <c r="I8" t="n">
+      <c r="W8" t="n">
         <v>6406.303821143313</v>
       </c>
     </row>
@@ -667,28 +1003,1064 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>9574.253621326312</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7178.091693880074</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7370.74931905255</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10566.11054330446</v>
+      </c>
+      <c r="F9" t="n">
         <v>6419.614655312224</v>
       </c>
-      <c r="C9" t="n">
+      <c r="G9" t="n">
+        <v>7105.764641372001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7065.376903730607</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8588.502906243433</v>
+      </c>
+      <c r="J9" t="n">
         <v>2276.953105953862</v>
       </c>
-      <c r="D9" t="n">
+      <c r="K9" t="n">
+        <v>4413.361126749694</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7376.707188481893</v>
+      </c>
+      <c r="M9" t="n">
         <v>5771.065636151679</v>
       </c>
-      <c r="E9" t="n">
+      <c r="N9" t="n">
         <v>6548.275967369334</v>
       </c>
-      <c r="F9" t="n">
+      <c r="O9" t="n">
+        <v>4797.895819140836</v>
+      </c>
+      <c r="P9" t="n">
         <v>3732.19037848708</v>
       </c>
-      <c r="G9" t="n">
+      <c r="Q9" t="n">
+        <v>7048.058464028909</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8485.427976625988</v>
+      </c>
+      <c r="S9" t="n">
         <v>6414.307751661479</v>
       </c>
-      <c r="H9" t="n">
+      <c r="T9" t="n">
+        <v>5154.978426415954</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4493.776815109177</v>
+      </c>
+      <c r="V9" t="n">
         <v>6444.170162557124</v>
       </c>
-      <c r="I9" t="n">
+      <c r="W9" t="n">
         <v>39.45577150811653</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4451.77613933112</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4556.397498299511</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4105.201557055442</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1603.672225422053</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2828.30882842345</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4573.434582649802</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4570.499016491248</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2638.614420562662</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7029.596919219708</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5571.029353822641</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3717.096050516367</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3500.703554751373</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2771.932711085464</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5339.139727685952</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5591.338095258182</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4579.370736993589</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2636.375354344665</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2832.347567029521</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5199.326025418615</v>
+      </c>
+      <c r="U10" t="n">
+        <v>9301.17783437125</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2802.804412314427</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9236.68350774092</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5235.899641123828</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4178.314531143749</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3809.355188373435</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3433.358349140908</v>
+      </c>
+      <c r="F11" t="n">
+        <v>861.4242537622941</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4158.037184136322</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4133.482990188011</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3148.283315439426</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5006.289717896098</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3964.417573580957</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3397.466758024058</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1574.629271829801</v>
+      </c>
+      <c r="N11" t="n">
+        <v>670.9703551321929</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3851.847358817031</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3618.888947378938</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4133.728562560143</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3073.520597505817</v>
+      </c>
+      <c r="S11" t="n">
+        <v>833.2402832210763</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3856.113430958116</v>
+      </c>
+      <c r="U11" t="n">
+        <v>7998.683533091111</v>
+      </c>
+      <c r="V11" t="n">
+        <v>821.1817938034386</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7158.044382241276</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4773.152967847826</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3794.156588237902</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3408.040370333973</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3347.717250903937</v>
+      </c>
+      <c r="F12" t="n">
+        <v>940.2546975766716</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3778.878277278523</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3757.087397066779</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2684.9001118649</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5144.164633456277</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3875.982023547194</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2991.239371458166</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1622.800418020218</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1049.791062379941</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3717.572812793663</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3714.938692838808</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3758.618848741985</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2610.675980523547</v>
+      </c>
+      <c r="S12" t="n">
+        <v>947.1588509718326</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3674.31618212008</v>
+      </c>
+      <c r="U12" t="n">
+        <v>7847.19255315255</v>
+      </c>
+      <c r="V12" t="n">
+        <v>915.8949649459349</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7350.262626420011</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1938.074152973251</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4243.256103825203</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4201.254255401767</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6277.925024631544</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7017.755968637067</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4315.204834089325</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4359.292066112308</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3866.335224816083</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9415.36805510565</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7095.417065468004</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4382.223951333581</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7179.313275597528</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7498.507089291879</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6706.153773008871</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8315.00788254301</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4375.146489604911</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3956.441576760313</v>
+      </c>
+      <c r="S13" t="n">
+        <v>7077.672905560273</v>
+      </c>
+      <c r="T13" t="n">
+        <v>6318.563005850056</v>
+      </c>
+      <c r="U13" t="n">
+        <v>7804.505313318537</v>
+      </c>
+      <c r="V13" t="n">
+        <v>7034.687014687814</v>
+      </c>
+      <c r="W13" t="n">
+        <v>11294.8952785088</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5279.7705395714</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4194.095073034234</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3829.485074438492</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3487.63030129348</v>
+      </c>
+      <c r="F14" t="n">
+        <v>823.1096576265336</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4172.699366363451</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4147.547562100732</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3193.720375943394</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4951.532150606216</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3932.997347241651</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3419.152765277009</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1533.030146486183</v>
+      </c>
+      <c r="N14" t="n">
+        <v>606.9939267419732</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3826.346440543912</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3568.357092824642</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4147.50917921183</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3117.815692793737</v>
+      </c>
+      <c r="S14" t="n">
+        <v>791.1204409036902</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3837.061264187146</v>
+      </c>
+      <c r="U14" t="n">
+        <v>7972.848195976295</v>
+      </c>
+      <c r="V14" t="n">
+        <v>781.6405204006977</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7099.046616990365</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5294.001672107398</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4192.818356852126</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3830.503365570969</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3518.531489926578</v>
+      </c>
+      <c r="F15" t="n">
+        <v>798.1435628614022</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4170.851851346923</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4145.397618779948</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3209.061588077613</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4920.584868424903</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3910.021278952391</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3421.040883649657</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1506.422742713279</v>
+      </c>
+      <c r="N15" t="n">
+        <v>576.2448466382808</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3805.802358801864</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3538.569785013909</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4145.214630915708</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3132.46641055272</v>
+      </c>
+      <c r="S15" t="n">
+        <v>764.6799499495795</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3819.272366259042</v>
+      </c>
+      <c r="U15" t="n">
+        <v>7951.986210830038</v>
+      </c>
+      <c r="V15" t="n">
+        <v>756.2263640329245</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7067.276925391348</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3005.236164046194</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2853.708804162979</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2401.269098805685</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3205.586961351755</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2541.691773425445</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2876.036560111321</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2876.822759454464</v>
+      </c>
+      <c r="I16" t="n">
+        <v>971.3458821865095</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6277.974315878896</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4373.318276068932</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2031.433351400333</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2960.654702850693</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2899.954788437846</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4063.969446943337</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4832.780274146498</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2886.983383467482</v>
+      </c>
+      <c r="R16" t="n">
+        <v>944.6340321741126</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2587.629308193909</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3834.46219481365</v>
+      </c>
+      <c r="U16" t="n">
+        <v>7743.53643403728</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2544.747462868314</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8553.529220020841</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>7535.220684141036</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5850.408021307557</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5625.666864605307</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5430.407183760601</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2376.546169132419</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5802.175353354295</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5763.930138566355</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5528.08719149337</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3698.560212759373</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4113.750714448356</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5287.887113827001</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2362.567532728398</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1938.113920109121</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4264.081869007493</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2899.609338980724</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5756.518791925649</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5436.704216419851</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2315.639109242866</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4506.368956322164</v>
+      </c>
+      <c r="U17" t="n">
+        <v>7857.79194576886</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2358.503856879007</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5330.20112655682</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4428.021835776062</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3439.531761088277</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3047.986132608825</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3459.217673157641</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1019.32985968523</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3426.193172698204</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3405.537487235862</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2345.602707167583</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5135.139887707864</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3703.278289638803</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2630.12721212744</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1610.919394604574</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1317.301123629031</v>
+      </c>
+      <c r="O18" t="n">
+        <v>3513.306236385053</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3685.310180350981</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3407.589698908213</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2267.339272453321</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1050.383471364819</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3437.146684459039</v>
+      </c>
+      <c r="U18" t="n">
+        <v>7611.408118586444</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1010.450818104307</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7374.894137864612</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>7096.984121033933</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5445.70528557752</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5208.528377249722</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5155.519357912443</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1937.047459449588</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5399.435368402795</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5362.046139640382</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5088.684641595359</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3706.720369545305</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3855.600485271779</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4864.025666986038</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1951.863599450809</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1511.790979504545</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3972.420872159572</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2745.398049737718</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5355.221868562156</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4997.170735946904</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1876.030750152551</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4189.401877827537</v>
+      </c>
+      <c r="U19" t="n">
+        <v>7714.137884529194</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1918.887577862344</v>
+      </c>
+      <c r="W19" t="n">
+        <v>5494.900022942997</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5308.651805508477</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4200.957565842092</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3839.754666784776</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3531.245202636173</v>
+      </c>
+      <c r="F20" t="n">
+        <v>791.9158375647756</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4178.710191839388</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4153.106354685694</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3224.110116937563</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4907.85169869194</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3905.069543852815</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3430.710094447842</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1498.591941545968</v>
+      </c>
+      <c r="N20" t="n">
+        <v>559.0905923203377</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3802.648376335362</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3527.40771960559</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4152.851250940419</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3147.287006682714</v>
+      </c>
+      <c r="S20" t="n">
+        <v>757.174688314016</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3818.01336035272</v>
+      </c>
+      <c r="U20" t="n">
+        <v>7948.540766243922</v>
+      </c>
+      <c r="V20" t="n">
+        <v>749.6361374248073</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7052.867097986707</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3034.310144750084</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2799.964000460529</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2347.779385164515</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3268.427759521424</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2458.271867622124</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2820.197604791621</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2819.667635056882</v>
+      </c>
+      <c r="I21" t="n">
+        <v>975.8784887080899</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6179.050479437069</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4277.46361657612</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1970.651474786049</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2867.506088998864</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2829.838461450481</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3969.857375164284</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4734.089999986262</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2829.406495975252</v>
+      </c>
+      <c r="R21" t="n">
+        <v>938.6282320988606</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2505.358313630473</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3743.33186128171</v>
+      </c>
+      <c r="U21" t="n">
+        <v>7668.170465679255</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2462.331516355272</v>
+      </c>
+      <c r="W21" t="n">
+        <v>8454.583503634556</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6763.91542732573</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5162.230829718637</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4909.84404522487</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4904.909553934756</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1600.789753357498</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5118.383039150715</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5082.075014841947</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4747.584654235447</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3805.634413041225</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3730.58093784456</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4556.587234217485</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1674.049827779713</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1168.859545719797</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3814.308165676812</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2728.254772608357</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5075.958463058825</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4656.750313014528</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1538.350700550491</v>
+      </c>
+      <c r="T22" t="n">
+        <v>4004.784153971343</v>
+      </c>
+      <c r="U22" t="n">
+        <v>7669.339579077127</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1580.876159438567</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5692.881072673187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10110.22744141396</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8220.677133020912</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8069.685764036308</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7452.778142291148</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4977.231431921085</v>
+      </c>
+      <c r="G23" t="n">
+        <v>8162.723383158333</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8120.692493627708</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8133.356157764447</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4309.437377383431</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5885.95867926793</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7774.933105587043</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4854.95524756439</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4538.1976794624</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6168.955914749413</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4441.069920256309</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>8110.259518371493</v>
+      </c>
+      <c r="R23" t="n">
+        <v>8040.463291846901</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4918.50049982172</v>
+      </c>
+      <c r="T23" t="n">
+        <v>6504.794752910167</v>
+      </c>
+      <c r="U23" t="n">
+        <v>8659.443353443005</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4961.690852223852</v>
+      </c>
+      <c r="W23" t="n">
+        <v>4674.682166360738</v>
       </c>
     </row>
   </sheetData>
